--- a/L0 Analytics with Excel/Excel_Sales_Marketing_Scorecards_Template.xlsx
+++ b/L0 Analytics with Excel/Excel_Sales_Marketing_Scorecards_Template.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/Excel Scorecards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_Excel_Analytics/L0 Analytics with Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB46867-57B4-43A1-AFD3-0250746F90A2}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D625A69-4A7C-4779-9223-327B123ED0F8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Scorecard" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$I$18</definedName>
+    <definedName name="Leads">Data!$G$3:$G$18</definedName>
+    <definedName name="Pipeline">Data!$F$3:$F$18</definedName>
+    <definedName name="Pipeline_Lead">Data!$H$3:$H$18</definedName>
+    <definedName name="QTR">Data!$A$3:$A$18</definedName>
+    <definedName name="Region">Data!$B$3:$B$18</definedName>
+    <definedName name="Revenue">Data!$C$3:$C$18</definedName>
+    <definedName name="Revenue_Win">Data!$E$3:$E$18</definedName>
+    <definedName name="Wins">Data!$D$3:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>Performance Scorecards</t>
   </si>
@@ -161,9 +170,6 @@
     <t>PQ</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Revenue_Win</t>
   </si>
   <si>
@@ -174,6 +180,27 @@
   </si>
   <si>
     <t>Sales Performance</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Price Of Product</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -266,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,21 +341,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -356,19 +368,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -426,7 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,54 +434,54 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -628,7 +627,210 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1310450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C2F15C-16F2-BFAD-25CF-3826D3DFBC37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3018600" y="4711080"/>
+            <a:ext cx="2001240" cy="75960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C2F15C-16F2-BFAD-25CF-3826D3DFBC37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3009958" y="4702440"/>
+              <a:ext cx="2018883" cy="93600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1601280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942530</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F3249C-F35A-F3D0-1D25-60755893FE3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1601280" y="4590480"/>
+            <a:ext cx="1049400" cy="301320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F3249C-F35A-F3D0-1D25-60755893FE3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1592280" y="4581840"/>
+              <a:ext cx="1067040" cy="318960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-07-31T07:29:23.382"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 202 5132 0 0,'-4'-8'10670'0'0,"34"19"-8979"0"0,28-7-1481 0 0,0-2 1 0 0,0-3-1 0 0,68-9 0 0 0,-5 1 32 0 0,732-7-63 0 0,-72 3 590 0 0,109-69 770 0 0,-857 79-1513 0 0,190-30 470 0 0,109-10-365 0 0,-295 43-651 0 0,0 1-1 0 0,37 7 1 0 0,-24-3-3136 0 0,0-1-3390 0 0,-35-4 4526 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="744.73">2353 77 6185 0 0,'20'0'5806'0'0,"55"5"-3654"0"0,38 1-1584 0 0,477 37 805 0 0,258 7 281 0 0,369-43 148 0 0,-876 7 351 0 0,-341-14-2210 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-13-6-6424 0 0,11 5 5222 0 0,-2-1-1673 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-07-31T07:29:25.764"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">447 188 7981 0 0,'-2'-3'340'0'0,"-1"0"0"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-5-1 0 0 0,1 1-92 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1 0 0 0 0,-12 2-1 0 0,1 1-132 0 0,1 1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 2 1 0 0,-24 13-1 0 0,25-11-5 0 0,0 1-1 0 0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-13 23 0 0 0,19-29-72 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1 1 0 0 0,2-1-1 0 0,-1 0 1 0 0,2 1 0 0 0,0-1 0 0 0,4 17 0 0 0,-4-23-29 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,9 4 1 0 0,-4-4 3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-2 0 0 0,9-1 0 0 0,2-1 1 0 0,1-2 0 0 0,-1 0-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,26-18-1 0 0,-34 19 14 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-2 0 0 0,5-18-1 0 0,-9 26-4 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-10-6 0 0 0,12 8-15 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-5 3-1 0 0,4-1 2 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-5 7 0 0 0,2 0 24 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 23 0 0 0,3-24-38 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-2 0 0 0,-1 1 1 0 0,1-2-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,13-2 0 0 0,5 0-1827 0 0,-1-2-1 0 0,1-1 0 0 0,0-2 0 0 0,-1-1 0 0 0,28-10 0 0 0,-28 7-638 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="616.61">1123 59 8109 0 0,'-1'1'228'0'0,"0"-1"0"0"0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,-5 42 475 0 0,4-34-220 0 0,-5 34-195 0 0,-3 1 0 0 0,-1-2 0 0 0,-2 1 0 0 0,-2-2 0 0 0,-33 69 0 0 0,9-36-736 0 0,-4-2-1 0 0,-54 72 1 0 0,93-139-495 0 0,-5 5-5427 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2032.67">1481 262 5653 0 0,'0'0'2234'0'0,"-20"-30"4590"0"0,15 35-6696 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 9 1 0 0,-1-4 162 0 0,-12 25-201 0 0,0 1 1 0 0,3 1-1 0 0,1 1 1 0 0,1 0-1 0 0,-9 57 1 0 0,21-95-148 0 0,-1 20-19 0 0,-2 0 1 0 0,-10 33-1 0 0,-5-20-7817 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2422.41">1608 222 7597 0 0,'-1'-1'175'0'0,"0"1"0"0"0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,-19 64-244 0 0,13-41 449 0 0,-47 185-356 0 0,31-110-5314 0 0,16-84 1695 0 0,4-12 1599 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2821.35">1346 415 5857 0 0,'-24'-10'3556'0'0,"25"13"-1947"0"0,16 4-1513 0 0,1-2-924 0 0,1 0-1 0 0,-1-1 0 0 0,32 1 0 0 0,-28-3-985 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.35">1761 294 7641 0 0,'-1'0'218'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-10 39-309 0 0,7-25 469 0 0,-48 203-1337 0 0,28-111-6903 0 0,19-91 6044 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3248.33">1768 319 5653 0 0,'0'-7'241'0'0,"0"-1"0"0"0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,8-8 0 0 0,-8 9-404 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 1 1 0 0,6 3-1 0 0,-1 1-1263 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3249.33">1784 333 6265 0 0,'-1'-1'69'0'0,"1"1"1"0"0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,23 8 663 0 0,35 4-805 0 0,-18-8-1880 0 0,49 2 1 0 0,-64-7 362 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3637.89">2506 1 7893 0 0,'-1'0'320'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,-22 26 704 0 0,21-25-668 0 0,-33 51 129 0 0,2 0 0 0 0,2 2 0 0 0,3 1 0 0 0,-26 79 0 0 0,-1-4-350 0 0,34-85-408 0 0,-42 101 193 0 0,30-49-9105 0 0,31-89 6256 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4003.45">2915 107 10381 0 0,'-8'7'4869'0'0,"-11"10"-3190"0"0,-3 8-1412 0 0,0 1 0 0 0,2 2 0 0 0,0 0 0 0 0,2 1 0 0 0,-14 32 0 0 0,-63 164-999 0 0,49-108-2457 0 0,19-46-2589 0 0,20-54 3335 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4004.45">2572 194 9101 0 0,'-4'-2'517'0'0,"1"-1"-1"0"0,-1 2 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-6 1 1 0 0,10 1-429 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,4 24-169 0 0,2-9 78 0 0,1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,14 16 0 0 0,31 30-4533 0 0,-35-42 1855 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E553BC-EC47-4C5D-A122-7138B454D697}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,21 +1274,25 @@
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1111,8 +1317,15 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUM(I3:I18)</f>
+        <v>274096.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1137,8 +1350,12 @@
       <c r="H3" s="3">
         <v>517.87886279357235</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="3">
+        <f>IF(B3=$I$2,C3,0)</f>
+        <v>83792.800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1163,8 +1380,12 @@
       <c r="H4" s="3">
         <v>553.37326607818409</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I18" si="0">IF(B4=$I$2,C4,0)</f>
+        <v>78988.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1189,8 +1410,19 @@
       <c r="H5" s="3">
         <v>892.82264150943399</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>85175.28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5">
+        <f>SUMIF(Region,K5,Revenue)</f>
+        <v>274096.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1447,19 @@
       <c r="H6" s="3">
         <v>221.56484149855908</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>26140.22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5">
+        <f>SUMIF(Region,K6,Revenue)</f>
+        <v>272395.72000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1241,8 +1484,19 @@
       <c r="H7" s="3">
         <v>526.69509981851184</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="5">
+        <f>SUMIF(Region,K7,Revenue)</f>
+        <v>93576.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1521,19 @@
       <c r="H8" s="3">
         <v>530.40893470790377</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5">
+        <f>SUMIF(Region,K8,Revenue)</f>
+        <v>225379.21000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1293,8 +1558,12 @@
       <c r="H9" s="3">
         <v>650.84052287581699</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1319,8 +1588,12 @@
       <c r="H10" s="3">
         <v>547.09677419354841</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1345,8 +1618,12 @@
       <c r="H11" s="3">
         <v>165.25573770491803</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1371,8 +1648,12 @@
       <c r="H12" s="3">
         <v>362.6919127086008</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1397,8 +1678,12 @@
       <c r="H13" s="3">
         <v>172.67876787678767</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1708,12 @@
       <c r="H14" s="3">
         <v>201.85867895545314</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1449,8 +1738,12 @@
       <c r="H15" s="3">
         <v>206.10095497953614</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1475,8 +1768,12 @@
       <c r="H16" s="3">
         <v>599.50307692307695</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1501,8 +1798,12 @@
       <c r="H17" s="3">
         <v>400.34422657952069</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1526,6 +1827,10 @@
       </c>
       <c r="H18" s="3">
         <v>583.42441054091535</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1542,26 +1847,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>43</v>
+      <c r="D1" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1570,47 +1875,53 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
-        <v>44</v>
+      <c r="C3" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>40</v>
+      <c r="G3" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="29"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="24"/>
       <c r="J4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="14" t="e">
-        <f>D5/E5-1</f>
-        <v>#DIV/0!</v>
+      <c r="D5" s="8">
+        <f ca="1">SUMIFS(INDIRECT($B5),Region,$D$1,QTR,D$4)</f>
+        <v>167913.24</v>
+      </c>
+      <c r="E5" s="8">
+        <f ca="1">SUMIFS(INDIRECT($B5),Region,$D$1,QTR,E$4)</f>
+        <v>259750.87</v>
+      </c>
+      <c r="G5" s="13">
+        <f ca="1">D5/E5-1</f>
+        <v>-0.35356043273310311</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -1620,14 +1931,20 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="20"/>
-      <c r="G6" s="15" t="e">
-        <f>D6/E6-1</f>
-        <v>#DIV/0!</v>
+      <c r="D6" s="27">
+        <f ca="1">SUMIFS(INDIRECT($B6),Region,$D$1,QTR,D$4)</f>
+        <v>468</v>
+      </c>
+      <c r="E6" s="27">
+        <f ca="1">SUMIFS(INDIRECT($B6),Region,$D$1,QTR,E$4)</f>
+        <v>559</v>
+      </c>
+      <c r="G6" s="14">
+        <f ca="1">D6/E6-1</f>
+        <v>-0.16279069767441856</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -1635,62 +1952,86 @@
     </row>
     <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="21"/>
-      <c r="G7" s="16" t="e">
-        <f>D7/E7-1</f>
-        <v>#DIV/0!</v>
+      <c r="D7" s="9">
+        <f ca="1">D5/D6</f>
+        <v>358.78897435897431</v>
+      </c>
+      <c r="E7" s="9">
+        <f ca="1">E5/E6</f>
+        <v>464.67060822898031</v>
+      </c>
+      <c r="G7" s="15">
+        <f ca="1">D7/E7-1</f>
+        <v>-0.22786385020898425</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="14" t="e">
-        <f>D9/E9-1</f>
-        <v>#DIV/0!</v>
+      <c r="D9" s="8">
+        <f ca="1">SUMIFS(INDIRECT($B9),Region,$D$1,QTR,D$4)</f>
+        <v>1146785</v>
+      </c>
+      <c r="E9" s="8">
+        <f ca="1">SUMIFS(INDIRECT($B9),Region,$D$1,QTR,E$4)</f>
+        <v>1495570</v>
+      </c>
+      <c r="G9" s="13">
+        <f ca="1">D9/E9-1</f>
+        <v>-0.23321208636172164</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="15" t="e">
-        <f>D10/E10-1</f>
-        <v>#DIV/0!</v>
+      <c r="D10" s="27">
+        <f ca="1">SUMIFS(INDIRECT($B10),Region,$D$1,QTR,D$4)</f>
+        <v>2872</v>
+      </c>
+      <c r="E10" s="27">
+        <f ca="1">SUMIFS(INDIRECT($B10),Region,$D$1,QTR,E$4)</f>
+        <v>3122</v>
+      </c>
+      <c r="G10" s="14">
+        <f ca="1">D10/E10-1</f>
+        <v>-8.007687379884687E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="21"/>
-      <c r="G11" s="16" t="e">
-        <f>D11/E11-1</f>
-        <v>#DIV/0!</v>
+      <c r="D11" s="9">
+        <f ca="1">D9/D10</f>
+        <v>399.29839832869078</v>
+      </c>
+      <c r="E11" s="9">
+        <f ca="1">E9/E10</f>
+        <v>479.04228058936582</v>
+      </c>
+      <c r="G11" s="15">
+        <f ca="1">D11/E11-1</f>
+        <v>-0.16646522758401638</v>
       </c>
     </row>
   </sheetData>
@@ -1717,4 +2058,66 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD714044-6253-4D2C-A0F1-DCED5B805603}">
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <f>E4*$B$4</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <f>E5*$B$4</f>
+        <v>5600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/L0 Analytics with Excel/Excel_Sales_Marketing_Scorecards_Template.xlsx
+++ b/L0 Analytics with Excel/Excel_Sales_Marketing_Scorecards_Template.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_Excel_Analytics/L0 Analytics with Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/3_Create_CXO_Dashboards/Excel Scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D625A69-4A7C-4779-9223-327B123ED0F8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{769BB98E-02F1-488A-9D70-2CBB8B3E1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB46867-57B4-43A1-AFD3-0250746F90A2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Scorecard" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$I$18</definedName>
-    <definedName name="Leads">Data!$G$3:$G$18</definedName>
-    <definedName name="Pipeline">Data!$F$3:$F$18</definedName>
-    <definedName name="Pipeline_Lead">Data!$H$3:$H$18</definedName>
-    <definedName name="QTR">Data!$A$3:$A$18</definedName>
-    <definedName name="Region">Data!$B$3:$B$18</definedName>
-    <definedName name="Revenue">Data!$C$3:$C$18</definedName>
-    <definedName name="Revenue_Win">Data!$E$3:$E$18</definedName>
-    <definedName name="Wins">Data!$D$3:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$H$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Performance Scorecards</t>
   </si>
@@ -170,6 +161,9 @@
     <t>PQ</t>
   </si>
   <si>
+    <t>Diff</t>
+  </si>
+  <si>
     <t>Revenue_Win</t>
   </si>
   <si>
@@ -180,27 +174,6 @@
   </si>
   <si>
     <t>Sales Performance</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>Price Of Product</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>B2B</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -293,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -341,6 +314,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -368,6 +356,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -425,7 +426,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,54 +435,54 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -627,210 +628,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1310450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176940</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C2F15C-16F2-BFAD-25CF-3826D3DFBC37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3018600" y="4711080"/>
-            <a:ext cx="2001240" cy="75960"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C2F15C-16F2-BFAD-25CF-3826D3DFBC37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3009958" y="4702440"/>
-              <a:ext cx="2018883" cy="93600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1601280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>189930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>942530</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>72150</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Ink 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F3249C-F35A-F3D0-1D25-60755893FE3E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1601280" y="4590480"/>
-            <a:ext cx="1049400" cy="301320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="Ink 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F3249C-F35A-F3D0-1D25-60755893FE3E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1592280" y="4581840"/>
-              <a:ext cx="1067040" cy="318960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-07-31T07:29:23.382"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5 202 5132 0 0,'-4'-8'10670'0'0,"34"19"-8979"0"0,28-7-1481 0 0,0-2 1 0 0,0-3-1 0 0,68-9 0 0 0,-5 1 32 0 0,732-7-63 0 0,-72 3 590 0 0,109-69 770 0 0,-857 79-1513 0 0,190-30 470 0 0,109-10-365 0 0,-295 43-651 0 0,0 1-1 0 0,37 7 1 0 0,-24-3-3136 0 0,0-1-3390 0 0,-35-4 4526 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="744.73">2353 77 6185 0 0,'20'0'5806'0'0,"55"5"-3654"0"0,38 1-1584 0 0,477 37 805 0 0,258 7 281 0 0,369-43 148 0 0,-876 7 351 0 0,-341-14-2210 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-13-6-6424 0 0,11 5 5222 0 0,-2-1-1673 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-07-31T07:29:25.764"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">447 188 7981 0 0,'-2'-3'340'0'0,"-1"0"0"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-5-1 0 0 0,1 1-92 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 2 0 0 0,1 0 0 0 0,-12 2-1 0 0,1 1-132 0 0,1 1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 2 1 0 0,-24 13-1 0 0,25-11-5 0 0,0 1-1 0 0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,2 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 1-1 0 0,-13 23 0 0 0,19-29-72 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,2 0 0 0 0,-1 1 0 0 0,2-1-1 0 0,-1 0 1 0 0,2 1 0 0 0,0-1 0 0 0,4 17 0 0 0,-4-23-29 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,9 4 1 0 0,-4-4 3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-2 0 0 0,9-1 0 0 0,2-1 1 0 0,1-2 0 0 0,-1 0-1 0 0,-1-1 1 0 0,1-1 0 0 0,-1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,26-18-1 0 0,-34 19 14 0 0,0-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-2 0 0 0,5-18-1 0 0,-9 26-4 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,-10-6 0 0 0,12 8-15 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,-5 3-1 0 0,4-1 2 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-5 7 0 0 0,2 0 24 0 0,0 0-1 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 23 0 0 0,3-24-38 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,2-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-2 0 0 0,-1 1 1 0 0,1-2-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,13-2 0 0 0,5 0-1827 0 0,-1-2-1 0 0,1-1 0 0 0,0-2 0 0 0,-1-1 0 0 0,28-10 0 0 0,-28 7-638 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="616.61">1123 59 8109 0 0,'-1'1'228'0'0,"0"-1"0"0"0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,-5 42 475 0 0,4-34-220 0 0,-5 34-195 0 0,-3 1 0 0 0,-1-2 0 0 0,-2 1 0 0 0,-2-2 0 0 0,-33 69 0 0 0,9-36-736 0 0,-4-2-1 0 0,-54 72 1 0 0,93-139-495 0 0,-5 5-5427 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2032.67">1481 262 5653 0 0,'0'0'2234'0'0,"-20"-30"4590"0"0,15 35-6696 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 9 1 0 0,-1-4 162 0 0,-12 25-201 0 0,0 1 1 0 0,3 1-1 0 0,1 1 1 0 0,1 0-1 0 0,-9 57 1 0 0,21-95-148 0 0,-1 20-19 0 0,-2 0 1 0 0,-10 33-1 0 0,-5-20-7817 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2422.41">1608 222 7597 0 0,'-1'-1'175'0'0,"0"1"0"0"0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,-19 64-244 0 0,13-41 449 0 0,-47 185-356 0 0,31-110-5314 0 0,16-84 1695 0 0,4-12 1599 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2821.35">1346 415 5857 0 0,'-24'-10'3556'0'0,"25"13"-1947"0"0,16 4-1513 0 0,1-2-924 0 0,1 0-1 0 0,-1-1 0 0 0,32 1 0 0 0,-28-3-985 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.35">1761 294 7641 0 0,'-1'0'218'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-10 39-309 0 0,7-25 469 0 0,-48 203-1337 0 0,28-111-6903 0 0,19-91 6044 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3248.33">1768 319 5653 0 0,'0'-7'241'0'0,"0"-1"0"0"0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,8-8 0 0 0,-8 9-404 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 1 1 0 0,6 3-1 0 0,-1 1-1263 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3249.33">1784 333 6265 0 0,'-1'-1'69'0'0,"1"1"1"0"0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,23 8 663 0 0,35 4-805 0 0,-18-8-1880 0 0,49 2 1 0 0,-64-7 362 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3637.89">2506 1 7893 0 0,'-1'0'320'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 2 0 0 0,-22 26 704 0 0,21-25-668 0 0,-33 51 129 0 0,2 0 0 0 0,2 2 0 0 0,3 1 0 0 0,-26 79 0 0 0,-1-4-350 0 0,34-85-408 0 0,-42 101 193 0 0,30-49-9105 0 0,31-89 6256 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4003.45">2915 107 10381 0 0,'-8'7'4869'0'0,"-11"10"-3190"0"0,-3 8-1412 0 0,0 1 0 0 0,2 2 0 0 0,0 0 0 0 0,2 1 0 0 0,-14 32 0 0 0,-63 164-999 0 0,49-108-2457 0 0,19-46-2589 0 0,20-54 3335 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4004.45">2572 194 9101 0 0,'-4'-2'517'0'0,"1"-1"-1"0"0,-1 2 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-6 1 1 0 0,10 1-429 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,4 24-169 0 0,2-9 78 0 0,1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,14 16 0 0 0,31 30-4533 0 0,-35-42 1855 0 0</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1132,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A861E2-E235-43CE-AC0D-B1A33C91A044}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -1260,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E553BC-EC47-4C5D-A122-7138B454D697}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1274,25 +1072,21 @@
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1317,15 +1111,8 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="3">
-        <f>SUM(I3:I18)</f>
-        <v>274096.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1350,12 +1137,8 @@
       <c r="H3" s="3">
         <v>517.87886279357235</v>
       </c>
-      <c r="I3" s="3">
-        <f>IF(B3=$I$2,C3,0)</f>
-        <v>83792.800000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1380,12 +1163,8 @@
       <c r="H4" s="3">
         <v>553.37326607818409</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I18" si="0">IF(B4=$I$2,C4,0)</f>
-        <v>78988.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1410,19 +1189,8 @@
       <c r="H5" s="3">
         <v>892.82264150943399</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>85175.28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="5">
-        <f>SUMIF(Region,K5,Revenue)</f>
-        <v>274096.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1447,19 +1215,8 @@
       <c r="H6" s="3">
         <v>221.56484149855908</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>26140.22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5">
-        <f>SUMIF(Region,K6,Revenue)</f>
-        <v>272395.72000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1484,19 +1241,8 @@
       <c r="H7" s="3">
         <v>526.69509981851184</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="5">
-        <f>SUMIF(Region,K7,Revenue)</f>
-        <v>93576.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1521,19 +1267,8 @@
       <c r="H8" s="3">
         <v>530.40893470790377</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="5">
-        <f>SUMIF(Region,K8,Revenue)</f>
-        <v>225379.21000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1558,12 +1293,8 @@
       <c r="H9" s="3">
         <v>650.84052287581699</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1588,12 +1319,8 @@
       <c r="H10" s="3">
         <v>547.09677419354841</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1618,12 +1345,8 @@
       <c r="H11" s="3">
         <v>165.25573770491803</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1648,12 +1371,8 @@
       <c r="H12" s="3">
         <v>362.6919127086008</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1678,12 +1397,8 @@
       <c r="H13" s="3">
         <v>172.67876787678767</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1708,12 +1423,8 @@
       <c r="H14" s="3">
         <v>201.85867895545314</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1738,12 +1449,8 @@
       <c r="H15" s="3">
         <v>206.10095497953614</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1768,12 +1475,8 @@
       <c r="H16" s="3">
         <v>599.50307692307695</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1798,12 +1501,8 @@
       <c r="H17" s="3">
         <v>400.34422657952069</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1827,10 +1526,6 @@
       </c>
       <c r="H18" s="3">
         <v>583.42441054091535</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1847,26 +1542,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G11"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>42</v>
+      <c r="D1" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1875,53 +1570,47 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
-        <v>43</v>
+      <c r="C3" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>44</v>
+      <c r="G3" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="26"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="27"/>
       <c r="J4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8">
-        <f ca="1">SUMIFS(INDIRECT($B5),Region,$D$1,QTR,D$4)</f>
-        <v>167913.24</v>
-      </c>
-      <c r="E5" s="8">
-        <f ca="1">SUMIFS(INDIRECT($B5),Region,$D$1,QTR,E$4)</f>
-        <v>259750.87</v>
-      </c>
-      <c r="G5" s="13">
-        <f ca="1">D5/E5-1</f>
-        <v>-0.35356043273310311</v>
+      <c r="D5" s="8"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="14" t="e">
+        <f>D5/E5-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -1931,20 +1620,14 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27">
-        <f ca="1">SUMIFS(INDIRECT($B6),Region,$D$1,QTR,D$4)</f>
-        <v>468</v>
-      </c>
-      <c r="E6" s="27">
-        <f ca="1">SUMIFS(INDIRECT($B6),Region,$D$1,QTR,E$4)</f>
-        <v>559</v>
-      </c>
-      <c r="G6" s="14">
-        <f ca="1">D6/E6-1</f>
-        <v>-0.16279069767441856</v>
+      <c r="D6" s="9"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="15" t="e">
+        <f>D6/E6-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -1952,86 +1635,62 @@
     </row>
     <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9">
-        <f ca="1">D5/D6</f>
-        <v>358.78897435897431</v>
-      </c>
-      <c r="E7" s="9">
-        <f ca="1">E5/E6</f>
-        <v>464.67060822898031</v>
-      </c>
-      <c r="G7" s="15">
-        <f ca="1">D7/E7-1</f>
-        <v>-0.22786385020898425</v>
+      <c r="D7" s="10"/>
+      <c r="E7" s="21"/>
+      <c r="G7" s="16" t="e">
+        <f>D7/E7-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8">
-        <f ca="1">SUMIFS(INDIRECT($B9),Region,$D$1,QTR,D$4)</f>
-        <v>1146785</v>
-      </c>
-      <c r="E9" s="8">
-        <f ca="1">SUMIFS(INDIRECT($B9),Region,$D$1,QTR,E$4)</f>
-        <v>1495570</v>
-      </c>
-      <c r="G9" s="13">
-        <f ca="1">D9/E9-1</f>
-        <v>-0.23321208636172164</v>
+      <c r="D9" s="8"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="14" t="e">
+        <f>D9/E9-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27">
-        <f ca="1">SUMIFS(INDIRECT($B10),Region,$D$1,QTR,D$4)</f>
-        <v>2872</v>
-      </c>
-      <c r="E10" s="27">
-        <f ca="1">SUMIFS(INDIRECT($B10),Region,$D$1,QTR,E$4)</f>
-        <v>3122</v>
-      </c>
-      <c r="G10" s="14">
-        <f ca="1">D10/E10-1</f>
-        <v>-8.007687379884687E-2</v>
+      <c r="D10" s="9"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="15" t="e">
+        <f>D10/E10-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9">
-        <f ca="1">D9/D10</f>
-        <v>399.29839832869078</v>
-      </c>
-      <c r="E11" s="9">
-        <f ca="1">E9/E10</f>
-        <v>479.04228058936582</v>
-      </c>
-      <c r="G11" s="15">
-        <f ca="1">D11/E11-1</f>
-        <v>-0.16646522758401638</v>
+      <c r="D11" s="10"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="16" t="e">
+        <f>D11/E11-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2058,66 +1717,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD714044-6253-4D2C-A0F1-DCED5B805603}">
-  <dimension ref="B3:F5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <f>E4*$B$4</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <f>E5*$B$4</f>
-        <v>5600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>